--- a/crudo/Panichella-30d.xlsx
+++ b/crudo/Panichella-30d.xlsx
@@ -579,22 +579,22 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>53464.59</v>
+        <v>53477.7</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2">
-        <v>4455.3825</v>
+        <v>4456.475</v>
       </c>
       <c r="I2">
-        <v>9630</v>
+        <v>9632</v>
       </c>
       <c r="J2">
         <v>4977</v>
       </c>
       <c r="K2">
-        <v>1.934901</v>
+        <v>1.935302</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="O2">
-        <v>4860.417273</v>
+        <v>4861.609091</v>
       </c>
       <c r="P2">
         <v>93</v>
@@ -855,13 +855,13 @@
         <v>10162.11</v>
       </c>
       <c r="I8">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="J8">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="K8">
-        <v>1.429806</v>
+        <v>1.427802</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -885,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="T8">
-        <v>28.549849</v>
+        <v>28.528302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
